--- a/FIT3158 - Case 2 - Assignment -Jing.xlsx
+++ b/FIT3158 - Case 2 - Assignment -Jing.xlsx
@@ -5,132 +5,190 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjsa3\AppData\Local\Temp\MicrosoftEdgeDownloads\fc79fbe1-b519-4de8-b397-28ebb19ec4df\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jing\Dropbox\Monash Uni\FIT3158\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A56A3D-9A5E-40EB-9E61-B9598B7DC543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C47B5E-8E75-4D16-88CE-FF123581E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{8D9ADBB6-687D-48AA-9185-DF95C9F242E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{8D9ADBB6-687D-48AA-9185-DF95C9F242E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$A$6:$A$25</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$6:$A$21</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$6:$A$25</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Sheet1 (3)'!$A$6:$A$25</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$12:$L$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$22:$A$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Sheet1 (3)'!$A$6:$A$25</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Sheet1!$L$8:$L$11</definedName>
     <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$8:$L$11</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$8:$N$11</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$6:$L$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$12:$L$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Sheet1 (3)'!$A$6:$A$25</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$8</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$18:$L$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$12:$N$17</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$6:$L$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$18:$N$21</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$L$12:$L$17</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$12:$L$17</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$18:$N$22</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$L$6:$L$11</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$6:$L$11</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$6:$N$11</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$L$8:$L$11</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$8:$L$11</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$8:$N$11</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Sheet1!$L$6:$L$7</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$6:$L$7</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$6:$N$7</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Sheet1!$L$8:$L$11</definedName>
     <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Sheet1 (2)'!$L$8:$L$11</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'Sheet1 (3)'!$N$8:$N$11</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$H$27</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Sheet1 (2)'!$H$27</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Sheet1 (3)'!$J$27</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">3000</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$12:$M$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">500</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Sheet1 (3)'!$G$6:$G$25</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">Sheet1!$M$8:$M$11</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$8:$M$11</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$8:$O$11</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">4000</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$6:$M$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$12:$M$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Sheet1 (3)'!$F$6:$F$25</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">3000</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">3000</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$18:$M$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$12:$O$17</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">4000</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">4000</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$6:$M$11</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$18:$O$21</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$M$12:$M$17</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$12:$M$17</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$18:$O$22</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">Sheet1!$M$6:$M$11</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$6:$M$11</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$6:$O$11</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">Sheet1!$M$8:$M$11</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$8:$M$11</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$8:$O$11</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">Sheet1!$M$6:$M$7</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$6:$M$7</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$6:$O$7</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">Sheet1!$M$8:$M$11</definedName>
     <definedName name="solver_rhs9" localSheetId="1" hidden="1">'Sheet1 (2)'!$M$8:$M$11</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">'Sheet1 (3)'!$O$8:$O$11</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="59">
   <si>
     <t>Node</t>
   </si>
@@ -273,6 +331,63 @@
   </si>
   <si>
     <t>Holding requirement</t>
+  </si>
+  <si>
+    <t>DEC supply</t>
+  </si>
+  <si>
+    <t>DEC demand</t>
+  </si>
+  <si>
+    <t>DEC excess</t>
+  </si>
+  <si>
+    <t>US-JAN EX</t>
+  </si>
+  <si>
+    <t>UK-JAN EX</t>
+  </si>
+  <si>
+    <t>GM-JAN EX</t>
+  </si>
+  <si>
+    <t>CN-JAN EX</t>
+  </si>
+  <si>
+    <t>VT-DEC --&gt; US-DEC --&gt; VT-DEC Excess --&gt; US DEC</t>
+  </si>
+  <si>
+    <t>VT-DEC EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US-Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK-Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM-Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN-Jan </t>
+  </si>
+  <si>
+    <t>US-DEC EX</t>
+  </si>
+  <si>
+    <t>UK-DEC EX</t>
+  </si>
+  <si>
+    <t>GM-DEC EX</t>
+  </si>
+  <si>
+    <t>CN-DEC EX</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>UB</t>
   </si>
 </sst>
 </file>
@@ -299,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +445,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -352,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +513,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2867CD03-52C2-45B0-AC66-EB6210748FEC}">
-  <dimension ref="A5:M27"/>
+  <dimension ref="A5:O31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,9 +843,9 @@
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -779,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>3000</v>
+        <v>9999</v>
       </c>
       <c r="H6" s="4">
         <v>1200</v>
@@ -803,14 +928,14 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B25" si="0">VLOOKUP(C7,$J$6:$K$21,2,FALSE)</f>
+        <f t="shared" ref="B7:B10" si="0">VLOOKUP(C7,$J$6:$K$21,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D24" si="1">VLOOKUP(E7,$J$6:$K$21,2,FALSE)</f>
+        <f t="shared" ref="D7:D10" si="1">VLOOKUP(E7,$J$6:$K$21,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -820,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>4000</v>
+        <v>9999</v>
       </c>
       <c r="H7" s="4">
         <v>1300</v>
@@ -861,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>3000</v>
+        <v>9999</v>
       </c>
       <c r="H8" s="4">
         <v>1250</v>
@@ -902,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>4000</v>
+        <v>9999</v>
       </c>
       <c r="H9" s="4">
         <v>1250</v>
@@ -967,14 +1092,14 @@
         <v>1500</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B11:B25" si="3">VLOOKUP(C11,$J$6:$K$21,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D11:D24" si="4">VLOOKUP(E11,$J$6:$K$21,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1008,14 +1133,14 @@
         <v>1500</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1049,14 +1174,14 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1090,14 +1215,14 @@
         <v>0</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1131,14 +1256,14 @@
         <v>1500</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1172,14 +1297,14 @@
         <v>1500</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1208,19 +1333,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1249,19 +1374,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1291,19 +1416,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1316,7 +1441,7 @@
         <v>9999</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" ref="H19:H24" si="3">H11*1.15</f>
+        <f t="shared" ref="H19:H24" si="5">H11*1.15</f>
         <v>310.5</v>
       </c>
       <c r="J19" s="13" t="s">
@@ -1333,19 +1458,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1358,7 +1483,7 @@
         <v>9999</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>299</v>
       </c>
       <c r="J20" s="13" t="s">
@@ -1375,19 +1500,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1400,7 +1525,7 @@
         <v>9999</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>333.5</v>
       </c>
       <c r="J21" s="13" t="s">
@@ -1417,19 +1542,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -1442,7 +1567,7 @@
         <v>9999</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>287.5</v>
       </c>
       <c r="J22" t="s">
@@ -1459,19 +1584,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -1484,7 +1609,7 @@
         <v>9999</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>252.99999999999997</v>
       </c>
       <c r="J23" t="s">
@@ -1495,19 +1620,19 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -1520,23 +1645,23 @@
         <v>9999</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>264.5</v>
       </c>
       <c r="J24" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24">
         <f>SUM(L14:L17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1560,7 +1685,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1588,13 +1713,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="6">
         <f>SUMPRODUCT(H6:H25,A6:A25)</f>
         <v>10220000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>300</v>
+      </c>
+      <c r="O30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1605,21 +1754,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193EAB09-561D-454E-B426-3BCA2D242592}">
-  <dimension ref="A5:P31"/>
+  <dimension ref="A5:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
@@ -1688,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="14">
-        <f>SUMIF($D$6:$D$21,K6,$A$6:$A$21)-SUMIF($B$6:$B$21,K6,$A$6:$A$21)</f>
+        <f>SUMIF($D$6:$D$25,K6,$A$6:$A$25)-SUMIF($B$6:$B$25,K6,$A$6:$A$25)</f>
         <v>-3000</v>
       </c>
       <c r="M6" s="1">
@@ -1710,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D21" si="1">VLOOKUP(E7,$J$6:$K$17,2,FALSE)</f>
+        <f t="shared" ref="D7:D20" si="1">VLOOKUP(E7,$J$6:$K$17,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1729,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="14">
-        <f t="shared" ref="L7:L17" si="2">SUMIF($D$6:$D$21,K7,$A$6:$A$21)-SUMIF($B$6:$B$21,K7,$A$6:$A$21)</f>
+        <f t="shared" ref="L7:L22" si="2">SUMIF($D$6:$D$25,K7,$A$6:$A$25)-SUMIF($B$6:$B$25,K7,$A$6:$A$25)</f>
         <v>-3000</v>
       </c>
       <c r="M7" s="1">
@@ -1744,7 +1894,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -1788,7 +1938,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -1829,7 +1979,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -1873,7 +2023,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -2061,7 +2211,7 @@
       </c>
       <c r="L15" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M15" s="1">
         <v>2000</v>
@@ -2069,7 +2219,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
@@ -2107,7 +2257,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
@@ -2137,7 +2287,7 @@
       </c>
       <c r="L17" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="1">
         <v>2000</v>
@@ -2145,7 +2295,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -2167,13 +2317,23 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="1"/>
+      <c r="J18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="1">
+        <v>13</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>500</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -2195,13 +2355,23 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="1"/>
+      <c r="J19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="1">
+        <v>14</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>500</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -2223,9 +2393,19 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="1"/>
+      <c r="J20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1">
+        <v>15</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>500</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -2239,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(E21,$J$6:$K$22,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2251,48 +2431,135 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="1"/>
+      <c r="J21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="1">
+        <v>16</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>500</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="4">
+        <f>F6-100</f>
+        <v>1400</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="4"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="1"/>
+      <c r="J22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="1">
+        <v>17</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>-1000</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4">
+        <v>200</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="4"/>
-      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>17</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1">
+        <v>11</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3000</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="4"/>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15">
+        <f>SUM(M6:M7) * -1</f>
+        <v>7000</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>17</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="4">
+        <v>400</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="15">
+        <f>SUM(L8:L11)</f>
+        <v>6000</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
@@ -2307,8 +2574,15 @@
         <v>25</v>
       </c>
       <c r="H27" s="4">
-        <f>SUMPRODUCT(A6:A21,F6:F21)</f>
-        <v>19675000</v>
+        <f>SUMPRODUCT(A6:A25,F6:F25)</f>
+        <v>19937500</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="15">
+        <f>J24-J25</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -2338,6 +2612,1008 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA545AF-A469-42C4-AA72-482B6C868FEC}">
+  <dimension ref="A5:R37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1.9140244944537689E-11</v>
+      </c>
+      <c r="B6" s="1">
+        <f>VLOOKUP(C6,$L$6:$M$17,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <f>VLOOKUP(E6,$L$6:$M$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="4">
+        <f>300+R7</f>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14">
+        <f>SUMIF($D$6:$D$25,M6,$A$6:$A$25)-SUMIF($B$6:$B$25,M6,$A$6:$A$25)</f>
+        <v>-2999.9999996464485</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1999.9999997095954</v>
+      </c>
+      <c r="B7" s="1">
+        <f>VLOOKUP(C7,$L$6:$M$17,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D20" si="0">VLOOKUP(E7,$L$6:$M$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="4">
+        <f>270+R8</f>
+        <v>1570</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" ref="N7:N22" si="1">SUMIF($D$6:$D$25,M7,$A$6:$A$25)-SUMIF($B$6:$B$25,M7,$A$6:$A$25)</f>
+        <v>-4999.9999988452737</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-4000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <f>VLOOKUP(C8,$L$6:$M$17,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="4">
+        <f>260+R7</f>
+        <v>1460</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="1"/>
+        <v>1999.9999997096145</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1999.9999997096147</v>
+      </c>
+      <c r="B9" s="1">
+        <f>VLOOKUP(C9,$L$6:$M$17,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="4">
+        <f>R8+290</f>
+        <v>1590</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="1"/>
+        <v>1999.9999997096147</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1006.5233181693604</v>
+      </c>
+      <c r="B10" s="1">
+        <f>VLOOKUP(C10,$L$6:$M$17,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="4">
+        <f>R7+250</f>
+        <v>1450</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="1"/>
+        <v>1999.9999990748261</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>993.47668090546563</v>
+      </c>
+      <c r="B11" s="1">
+        <f>VLOOKUP(C11,$L$6:$M$17,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="4">
+        <f>R8+220</f>
+        <v>1520</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="1"/>
+        <v>1999.9999999976665</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1993.4766814770687</v>
+      </c>
+      <c r="B12" s="1">
+        <f>VLOOKUP(C12,$L$6:$M$17,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="4">
+        <f>R7+230</f>
+        <v>1430</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="1"/>
+        <v>-3000.0000001467129</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6.5233185205978472</v>
+      </c>
+      <c r="B13" s="1">
+        <f>VLOOKUP(C13,$L$6:$M$17,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H13" s="4">
+        <f>R8+240</f>
+        <v>1540</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>8</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="1"/>
+        <v>-3999.9999997074901</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5.2650562920784703</v>
+      </c>
+      <c r="B14" s="1">
+        <f>VLOOKUP(C14,$L$6:$M$17,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="4">
+        <f>1250+(300*1.15)</f>
+        <v>1595</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1">
+        <v>9</v>
+      </c>
+      <c r="N14" s="14">
+        <f>SUMIF($D$6:$D$25,M14,$A$6:$A$25)-SUMIF($B$6:$B$25,M14,$A$6:$A$25)+N18</f>
+        <v>2000.0000003736941</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1494.7349443720011</v>
+      </c>
+      <c r="B15" s="1">
+        <f>VLOOKUP(C15,$L$6:$M$17,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H15" s="4">
+        <f>1250+(270*1.15)</f>
+        <v>1560.5</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1">
+        <v>10</v>
+      </c>
+      <c r="N15" s="14">
+        <f>SUMIF($D$6:$D$25,M15,$A$6:$A$25)-SUMIF($B$6:$B$25,M15,$A$6:$A$25)+N19</f>
+        <v>2000.0000003736147</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5.2643386937516956</v>
+      </c>
+      <c r="B16" s="1">
+        <f>VLOOKUP(C16,$L$6:$M$17,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H16" s="4">
+        <f>1250+(260*1.15)</f>
+        <v>1549</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11</v>
+      </c>
+      <c r="N16" s="14">
+        <f t="shared" ref="N16:N17" si="2">SUMIF($D$6:$D$25,M16,$A$6:$A$25)-SUMIF($B$6:$B$25,M16,$A$6:$A$25)+N20</f>
+        <v>2999.9999962741185</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1494.7356619702484</v>
+      </c>
+      <c r="B17" s="1">
+        <f>VLOOKUP(C17,$L$6:$M$17,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H17" s="4">
+        <f>1250+(290*1.15)</f>
+        <v>1583.5</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1">
+        <v>12</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="2"/>
+        <v>2000.0000013244976</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1489.8460906879041</v>
+      </c>
+      <c r="B18" s="1">
+        <f>VLOOKUP(C18,$L$6:$M$17,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H18" s="4">
+        <f>1250+(250*1.15)</f>
+        <v>1537.5</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="1">
+        <v>13</v>
+      </c>
+      <c r="N18" s="14">
+        <f>SUMIF($D$6:$D$25,M18,$A$6:$A$25)-SUMIF($B$6:$B$25,M18,$A$6:$A$25)+(N8-O8)</f>
+        <v>499.99999970961449</v>
+      </c>
+      <c r="O18" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1010.1539065113883</v>
+      </c>
+      <c r="B19" s="1">
+        <f>VLOOKUP(C19,$L$6:$M$17,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H19" s="4">
+        <f>1250+(220*1.15)</f>
+        <v>1503</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="L19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="1">
+        <v>14</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" ref="N19:N21" si="3">SUMIF($D$6:$D$25,M19,$A$6:$A$25)-SUMIF($B$6:$B$25,M19,$A$6:$A$25)+(N9-O9)</f>
+        <v>499.99999970961471</v>
+      </c>
+      <c r="O19" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1499.6245144729787</v>
+      </c>
+      <c r="B20" s="1">
+        <f>VLOOKUP(C20,$L$6:$M$17,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="4">
+        <f>1250+(230*1.15)</f>
+        <v>1514.5</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="1">
+        <v>15</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="3"/>
+        <v>499.99999907482606</v>
+      </c>
+      <c r="O20" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.37548685385239422</v>
+      </c>
+      <c r="B21" s="1">
+        <f>VLOOKUP(C21,$L$6:$M$17,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <f>VLOOKUP(E21,$L$6:$M$22,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H21" s="4">
+        <f>1250+(240*1.15)</f>
+        <v>1526</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="1">
+        <v>16</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="3"/>
+        <v>499.99999999766646</v>
+      </c>
+      <c r="O21" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H22" s="4">
+        <f>H6-100</f>
+        <v>1400</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H23" s="4">
+        <v>200</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>17</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1">
+        <v>11</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15">
+        <f>SUM(O6:O7) * -1</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>17</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H25" s="4">
+        <v>400</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="15">
+        <f>SUM(N8:N11)</f>
+        <v>7999.9999984917213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="4">
+        <f>SUMPRODUCT(A6:A25,H6:H25)</f>
+        <v>22946914.963310648</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="15">
+        <f>L24-L25</f>
+        <v>-999.99999849172127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>300</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K37" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
